--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="8" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="چاتا" sheetId="14" state="hidden" r:id="rId7"/>
     <sheet name="ماکیناو" sheetId="15" state="hidden" r:id="rId8"/>
     <sheet name="سورن سفارش نوری" sheetId="13" state="hidden" r:id="rId9"/>
+    <sheet name="a" sheetId="16" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Delta_T__seconds">Setting!$B$10</definedName>
@@ -7225,6 +7226,77 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
@@ -7975,7 +8047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
